--- a/wechat/interface/daily_check/account.xlsx
+++ b/wechat/interface/daily_check/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23175" windowHeight="11235"/>
+    <workbookView windowWidth="24135" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>stvxwf</t>
+    <t>hsb88880000</t>
   </si>
   <si>
     <t>查询结果</t>
   </si>
   <si>
-    <t>ckxxwx</t>
+    <t>thefair2</t>
   </si>
   <si>
-    <t>zhijiankuanzhai</t>
+    <t>OutlookWeekly1981</t>
   </si>
   <si>
-    <t>udnbkk</t>
+    <t>guizhgg</t>
   </si>
   <si>
-    <t>Beijing_Daily</t>
+    <t>qunzh_1937</t>
   </si>
 </sst>
 </file>
@@ -39,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,7 +54,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,88 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -166,32 +175,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,25 +206,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,157 +380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,17 +400,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,25 +427,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,11 +452,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +482,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/wechat/interface/daily_check/account.xlsx
+++ b/wechat/interface/daily_check/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="14070"/>
+    <workbookView windowWidth="23175" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>hsb88880000</t>
+    <t>bjnews_xjb</t>
   </si>
   <si>
     <t>查询结果</t>
   </si>
   <si>
-    <t>thefair2</t>
+    <t xml:space="preserve"> iwzsee</t>
   </si>
   <si>
-    <t>OutlookWeekly1981</t>
+    <t>beisongshijiao</t>
   </si>
   <si>
-    <t>guizhgg</t>
+    <t>hbjs_87311111</t>
   </si>
   <si>
-    <t>qunzh_1937</t>
+    <t>jiyaomishu007</t>
   </si>
 </sst>
 </file>
@@ -41,8 +41,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,61 +60,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,24 +76,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,9 +120,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,7 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +159,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +397,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -411,17 +435,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,20 +459,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,21 +497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,145 +505,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
